--- a/biology/Médecine/Émile_Leredde/Émile_Leredde.xlsx
+++ b/biology/Médecine/Émile_Leredde/Émile_Leredde.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89mile_Leredde</t>
+          <t>Émile_Leredde</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Émile Leredde ou Laurent Victor Louis Émile Leredde (né le 26 octobre 1866 à Paris et mort fin 1926[1]) est un médecin français, spécialisé en dermatologie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Émile Leredde ou Laurent Victor Louis Émile Leredde (né le 26 octobre 1866 à Paris et mort fin 1926) est un médecin français, spécialisé en dermatologie.
 </t>
         </is>
       </c>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89mile_Leredde</t>
+          <t>Émile_Leredde</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,15 +523,17 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Son père est Louis Théophile Leredde et sa mère Fanny Émilie Édouard Poulain, mariés à Châteauneuf-sur-Loire[2] et tous deux propriétaires à Paris[3].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Son père est Louis Théophile Leredde et sa mère Fanny Émilie Édouard Poulain, mariés à Châteauneuf-sur-Loire et tous deux propriétaires à Paris.
 Il fait ses études de médecine à Paris et obtient son doctorat en 1893. Il est ensuite interne des hôpitaux de Paris puis chef de laboratoire à l'Hôpital Saint-Louis de 1894 à 1899. En 1897, il est chargé de mission par le gouverneur de l'Algérie.
-Ses travaux scientifiques concernent la dermatologie, le syphiligraphie et la médecine sociale[4].
-En 1895, Leredde publie avec François Henri Hallopeau un article sur l’éruption papuleuse du visage lors de la sclérose tubéreuse de Bourneville, alors connue comme « adénome sébacé ». L'article note aussi l'association fréquente entre épilepsie et affection dermatologique[5].
-En 1903, il fonde la Revue pratique des maladies cutanées, syphilitiques et vénériennes qui vécut jusqu'en 1908[1].
-Il s'engage dans le syndicalisme médical et en 1910, il est considéré comme « l’un des leaders du combat contre la faculté »[6]. Il devient président du Syndicat des médecins de la Seine[1].
-En 1922, il participe au Comité national de propagande d'hygiène sociale et d'éducation prophylactique qui publie un Manuel d'éducation prophylactique contre les maladies vénériennes[7].
+Ses travaux scientifiques concernent la dermatologie, le syphiligraphie et la médecine sociale.
+En 1895, Leredde publie avec François Henri Hallopeau un article sur l’éruption papuleuse du visage lors de la sclérose tubéreuse de Bourneville, alors connue comme « adénome sébacé ». L'article note aussi l'association fréquente entre épilepsie et affection dermatologique.
+En 1903, il fonde la Revue pratique des maladies cutanées, syphilitiques et vénériennes qui vécut jusqu'en 1908.
+Il s'engage dans le syndicalisme médical et en 1910, il est considéré comme « l’un des leaders du combat contre la faculté ». Il devient président du Syndicat des médecins de la Seine.
+En 1922, il participe au Comité national de propagande d'hygiène sociale et d'éducation prophylactique qui publie un Manuel d'éducation prophylactique contre les maladies vénériennes.
 </t>
         </is>
       </c>
@@ -530,7 +544,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89mile_Leredde</t>
+          <t>Émile_Leredde</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -548,7 +562,9 @@
           <t>Travaux scientifiques</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le Traitement de l'acné rosée par la photothérapie (1903).
 Le Traitement du cancer de la peau par les rayons X la radiothérapie dans les épithéliomes de la peau (1904).
@@ -571,7 +587,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>%C3%89mile_Leredde</t>
+          <t>Émile_Leredde</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -589,7 +605,9 @@
           <t>Autres travaux</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>La Morale théosophique (1904).</t>
         </is>
@@ -601,7 +619,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>%C3%89mile_Leredde</t>
+          <t>Émile_Leredde</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
@@ -619,9 +637,11 @@
           <t>Distinction</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est nommé chevalier de la Légion d'honneur par décret du 9 août 1907[3]. Il désigne Anatole France comme parrain délégué[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est nommé chevalier de la Légion d'honneur par décret du 9 août 1907. Il désigne Anatole France comme parrain délégué.
 </t>
         </is>
       </c>
